--- a/unlock_list.xlsx
+++ b/unlock_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keitaro\AppData\LocalLow\TheFarmerWasReplaced\TheFarmerWasReplaced\Saves\Save0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FC79136A-F0D3-48B1-839A-E1E82E241959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A332304F-DCD3-4AF4-BA0F-8E26F4A8251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25305" yWindow="2910" windowWidth="21600" windowHeight="11295" xr2:uid="{746CE067-3197-42F6-BDA0-A9216F3D166D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="unlock_list" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unlock_list!$A$1:$N$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unlock_list!$A$1:$N$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="32">
   <si>
     <t>Unlocks</t>
     <phoneticPr fontId="1"/>
@@ -169,6 +169,10 @@
     <t>Unlocks.Megafarm</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Unlocks.Hats</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -191,12 +195,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -213,8 +223,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -551,13 +564,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A1CAB-E595-4E15-A51F-59E58A23057E}">
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1603,22 +1616,22 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1633,13 +1646,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N24" t="b" cm="1">
         <f t="array" ref="N24">_xlfn.XLOOKUP($A24,$A$1:$A23,$B$1:$B23,-1,0,-1)&lt;B24</f>
@@ -1648,7 +1661,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -1660,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>1000</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1681,10 +1694,10 @@
         <v>1000</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="N25" t="b" cm="1">
         <f t="array" ref="N25">_xlfn.XLOOKUP($A25,$A$1:$A24,$B$1:$B24,-1,0,-1)&lt;B25</f>
@@ -1693,10 +1706,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1726,10 +1739,10 @@
         <v>1000</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="N26" t="b" cm="1">
         <f t="array" ref="N26">_xlfn.XLOOKUP($A26,$A$1:$A25,$B$1:$B25,-1,0,-1)&lt;B26</f>
@@ -1738,19 +1751,19 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1768,13 +1781,13 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="N27" t="b" cm="1">
         <f t="array" ref="N27">_xlfn.XLOOKUP($A27,$A$1:$A26,$B$1:$B26,-1,0,-1)&lt;B27</f>
@@ -1783,16 +1796,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="D28">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1813,13 +1826,13 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="N28" t="b" cm="1">
         <f t="array" ref="N28">_xlfn.XLOOKUP($A28,$A$1:$A27,$B$1:$B27,-1,0,-1)&lt;B28</f>
@@ -1828,16 +1841,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1858,13 +1871,13 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="N29" t="b" cm="1">
         <f t="array" ref="N29">_xlfn.XLOOKUP($A29,$A$1:$A28,$B$1:$B28,-1,0,-1)&lt;B29</f>
@@ -2413,13 +2426,13 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2431,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2443,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="L42">
-        <v>41</v>
+        <v>40.5</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="N42" t="b" cm="1">
         <f t="array" ref="N42">_xlfn.XLOOKUP($A42,$A$1:$A41,$B$1:$B41,-1,0,-1)&lt;B42</f>
@@ -2461,7 +2474,7 @@
         <v>11</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2476,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2488,22 +2501,22 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="L43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N43" t="b" cm="1">
-        <f t="array" ref="N43">_xlfn.XLOOKUP($A43,$A$1:$A42,$B$1:$B42,-1,0,-1)&lt;B43</f>
+        <f t="array" ref="N43">_xlfn.XLOOKUP($A43,$A$1:$A41,$B$1:$B41,-1,0,-1)&lt;B43</f>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2521,25 +2534,25 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M44">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="N44" t="b" cm="1">
         <f t="array" ref="N44">_xlfn.XLOOKUP($A44,$A$1:$A43,$B$1:$B43,-1,0,-1)&lt;B44</f>
@@ -2548,7 +2561,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2566,25 +2579,25 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M45">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N45" t="b" cm="1">
         <f t="array" ref="N45">_xlfn.XLOOKUP($A45,$A$1:$A44,$B$1:$B44,-1,0,-1)&lt;B45</f>
@@ -2593,16 +2606,16 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2611,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2623,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M46">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N46" t="b" cm="1">
         <f t="array" ref="N46">_xlfn.XLOOKUP($A46,$A$1:$A45,$B$1:$B45,-1,0,-1)&lt;B46</f>
@@ -2638,7 +2651,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -2647,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>12800</v>
+        <v>12500</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2668,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>12800</v>
+        <v>12500</v>
       </c>
       <c r="L47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M47">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="N47" t="b" cm="1">
         <f t="array" ref="N47">_xlfn.XLOOKUP($A47,$A$1:$A46,$B$1:$B46,-1,0,-1)&lt;B47</f>
@@ -2683,19 +2696,19 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>12800</v>
       </c>
       <c r="E48">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2713,13 +2726,13 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>16000</v>
+        <v>12800</v>
       </c>
       <c r="L48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M48">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="N48" t="b" cm="1">
         <f t="array" ref="N48">_xlfn.XLOOKUP($A48,$A$1:$A47,$B$1:$B47,-1,0,-1)&lt;B48</f>
@@ -2728,19 +2741,19 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>19200</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2758,13 +2771,13 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>19200</v>
+        <v>16000</v>
       </c>
       <c r="L49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M49">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="N49" t="b" cm="1">
         <f t="array" ref="N49">_xlfn.XLOOKUP($A49,$A$1:$A48,$B$1:$B48,-1,0,-1)&lt;B49</f>
@@ -2773,13 +2786,13 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2788,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2803,13 +2816,13 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>20000</v>
+        <v>19200</v>
       </c>
       <c r="L50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="N50" t="b" cm="1">
         <f t="array" ref="N50">_xlfn.XLOOKUP($A50,$A$1:$A49,$B$1:$B49,-1,0,-1)&lt;B50</f>
@@ -2818,22 +2831,22 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>31200</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2848,13 +2861,13 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>31200</v>
+        <v>20000</v>
       </c>
       <c r="L51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M51">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N51" t="b" cm="1">
         <f t="array" ref="N51">_xlfn.XLOOKUP($A51,$A$1:$A50,$B$1:$B50,-1,0,-1)&lt;B51</f>
@@ -2863,16 +2876,16 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>31200</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2884,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2893,13 +2906,13 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>32000</v>
+        <v>31200</v>
       </c>
       <c r="L52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M52">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="N52" t="b" cm="1">
         <f t="array" ref="N52">_xlfn.XLOOKUP($A52,$A$1:$A51,$B$1:$B51,-1,0,-1)&lt;B52</f>
@@ -2908,7 +2921,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -2929,22 +2942,22 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>32000</v>
       </c>
       <c r="I53">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="L53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M53">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="N53" t="b" cm="1">
         <f t="array" ref="N53">_xlfn.XLOOKUP($A53,$A$1:$A52,$B$1:$B52,-1,0,-1)&lt;B53</f>
@@ -2953,16 +2966,16 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>51200</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2977,19 +2990,19 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>51200</v>
+        <v>50000</v>
       </c>
       <c r="L54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M54">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="N54" t="b" cm="1">
         <f t="array" ref="N54">_xlfn.XLOOKUP($A54,$A$1:$A53,$B$1:$B53,-1,0,-1)&lt;B54</f>
@@ -2998,16 +3011,16 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>54000</v>
+        <v>51200</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3028,13 +3041,13 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>54000</v>
+        <v>51200</v>
       </c>
       <c r="L55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M55">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="N55" t="b" cm="1">
         <f t="array" ref="N55">_xlfn.XLOOKUP($A55,$A$1:$A54,$B$1:$B54,-1,0,-1)&lt;B55</f>
@@ -3043,16 +3056,16 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>62500</v>
+        <v>54000</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3073,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>62500</v>
+        <v>54000</v>
       </c>
       <c r="L56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M56">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N56" t="b" cm="1">
         <f t="array" ref="N56">_xlfn.XLOOKUP($A56,$A$1:$A55,$B$1:$B55,-1,0,-1)&lt;B56</f>
@@ -3088,19 +3101,19 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="E57">
-        <v>64000</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -3118,13 +3131,13 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>64000</v>
+        <v>62500</v>
       </c>
       <c r="L57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M57">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="N57" t="b" cm="1">
         <f t="array" ref="N57">_xlfn.XLOOKUP($A57,$A$1:$A56,$B$1:$B56,-1,0,-1)&lt;B57</f>
@@ -3133,10 +3146,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3145,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>64000</v>
       </c>
       <c r="F58">
-        <v>64000</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -3166,10 +3179,10 @@
         <v>64000</v>
       </c>
       <c r="L58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M58">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="N58" t="b" cm="1">
         <f t="array" ref="N58">_xlfn.XLOOKUP($A58,$A$1:$A57,$B$1:$B57,-1,0,-1)&lt;B58</f>
@@ -3178,13 +3191,13 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59">
-        <v>76800</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -3193,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>64000</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -3208,13 +3221,13 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>76800</v>
+        <v>64000</v>
       </c>
       <c r="L59">
         <v>57</v>
       </c>
       <c r="M59">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="N59" t="b" cm="1">
         <f t="array" ref="N59">_xlfn.XLOOKUP($A59,$A$1:$A58,$B$1:$B58,-1,0,-1)&lt;B59</f>
@@ -3223,13 +3236,13 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>76800</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -3238,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -3253,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>120000</v>
+        <v>76800</v>
       </c>
       <c r="L60">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M60">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="N60" t="b" cm="1">
         <f t="array" ref="N60">_xlfn.XLOOKUP($A60,$A$1:$A59,$B$1:$B59,-1,0,-1)&lt;B60</f>
@@ -3268,22 +3281,22 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>156000</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -3298,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>156000</v>
+        <v>120000</v>
       </c>
       <c r="L61">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M61">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N61" t="b" cm="1">
         <f t="array" ref="N61">_xlfn.XLOOKUP($A61,$A$1:$A60,$B$1:$B60,-1,0,-1)&lt;B61</f>
@@ -3313,16 +3326,16 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>205000</v>
+        <v>156000</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3343,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>205000</v>
+        <v>156000</v>
       </c>
       <c r="L62">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M62">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="N62" t="b" cm="1">
         <f t="array" ref="N62">_xlfn.XLOOKUP($A62,$A$1:$A61,$B$1:$B61,-1,0,-1)&lt;B62</f>
@@ -3358,16 +3371,16 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>205000</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3376,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3388,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>72000</v>
+        <v>205000</v>
       </c>
       <c r="L63">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M63">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="N63" t="b" cm="1">
         <f t="array" ref="N63">_xlfn.XLOOKUP($A63,$A$1:$A62,$B$1:$B62,-1,0,-1)&lt;B63</f>
@@ -3403,10 +3416,10 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3421,10 +3434,10 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="H64">
-        <v>128000</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -3433,13 +3446,13 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>128000</v>
+        <v>72000</v>
       </c>
       <c r="L64">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M64">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N64" t="b" cm="1">
         <f t="array" ref="N64">_xlfn.XLOOKUP($A64,$A$1:$A63,$B$1:$B63,-1,0,-1)&lt;B64</f>
@@ -3448,10 +3461,10 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3466,10 +3479,10 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>128000</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -3478,13 +3491,13 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>72000</v>
+        <v>128000</v>
       </c>
       <c r="L65">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M65">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="N65" t="b" cm="1">
         <f t="array" ref="N65">_xlfn.XLOOKUP($A65,$A$1:$A64,$B$1:$B64,-1,0,-1)&lt;B65</f>
@@ -3493,43 +3506,43 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>72000</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>72000</v>
+      </c>
+      <c r="L66">
+        <v>63</v>
+      </c>
+      <c r="M66">
         <v>19</v>
-      </c>
-      <c r="B66">
-        <v>3</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>250000</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>250000</v>
-      </c>
-      <c r="L66">
-        <v>64</v>
-      </c>
-      <c r="M66">
-        <v>62</v>
       </c>
       <c r="N66" t="b" cm="1">
         <f t="array" ref="N66">_xlfn.XLOOKUP($A66,$A$1:$A65,$B$1:$B65,-1,0,-1)&lt;B66</f>
@@ -3538,13 +3551,13 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>307000</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3562,19 +3575,19 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>307000</v>
+        <v>250000</v>
       </c>
       <c r="L67">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M67">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="N67" t="b" cm="1">
         <f t="array" ref="N67">_xlfn.XLOOKUP($A67,$A$1:$A66,$B$1:$B66,-1,0,-1)&lt;B67</f>
@@ -3583,16 +3596,16 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B68">
         <v>6</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>307000</v>
       </c>
       <c r="D68">
-        <v>312000</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3613,13 +3626,13 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>312000</v>
+        <v>307000</v>
       </c>
       <c r="L68">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M68">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="N68" t="b" cm="1">
         <f t="array" ref="N68">_xlfn.XLOOKUP($A68,$A$1:$A67,$B$1:$B67,-1,0,-1)&lt;B68</f>
@@ -3628,19 +3641,19 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>312000</v>
       </c>
       <c r="E69">
-        <v>256000</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3658,13 +3671,13 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>256000</v>
+        <v>312000</v>
       </c>
       <c r="L69">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M69">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N69" t="b" cm="1">
         <f t="array" ref="N69">_xlfn.XLOOKUP($A69,$A$1:$A68,$B$1:$B68,-1,0,-1)&lt;B69</f>
@@ -3673,10 +3686,10 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3685,10 +3698,10 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>256000</v>
       </c>
       <c r="F70">
-        <v>512000</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3703,13 +3716,13 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>512000</v>
+        <v>256000</v>
       </c>
       <c r="L70">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M70">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="N70" t="b" cm="1">
         <f t="array" ref="N70">_xlfn.XLOOKUP($A70,$A$1:$A69,$B$1:$B69,-1,0,-1)&lt;B70</f>
@@ -3718,10 +3731,10 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -3733,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>512000</v>
       </c>
       <c r="G71">
-        <v>432000</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3748,13 +3761,13 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>432000</v>
+        <v>512000</v>
       </c>
       <c r="L71">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M71">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N71" t="b" cm="1">
         <f t="array" ref="N71">_xlfn.XLOOKUP($A71,$A$1:$A70,$B$1:$B70,-1,0,-1)&lt;B71</f>
@@ -3763,10 +3776,10 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -3781,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>432000</v>
       </c>
       <c r="H72">
-        <v>512000</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -3793,13 +3806,13 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>512000</v>
+        <v>432000</v>
       </c>
       <c r="L72">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M72">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N72" t="b" cm="1">
         <f t="array" ref="N72">_xlfn.XLOOKUP($A72,$A$1:$A71,$B$1:$B71,-1,0,-1)&lt;B72</f>
@@ -3808,13 +3821,13 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C73">
-        <v>1230000</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3829,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>512000</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -3838,13 +3851,13 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>1230000</v>
+        <v>512000</v>
       </c>
       <c r="L73">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M73">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="N73" t="b" cm="1">
         <f t="array" ref="N73">_xlfn.XLOOKUP($A73,$A$1:$A72,$B$1:$B72,-1,0,-1)&lt;B73</f>
@@ -3853,22 +3866,22 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>819000</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>720000</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3883,13 +3896,13 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>819000</v>
+        <v>720000</v>
       </c>
       <c r="L74">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M74">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="N74" t="b" cm="1">
         <f t="array" ref="N74">_xlfn.XLOOKUP($A74,$A$1:$A73,$B$1:$B73,-1,0,-1)&lt;B74</f>
@@ -3898,16 +3911,16 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>781000</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3916,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>432000</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3928,13 +3941,13 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>781000</v>
+        <v>432000</v>
       </c>
       <c r="L75">
-        <v>73</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="M75">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N75" t="b" cm="1">
         <f t="array" ref="N75">_xlfn.XLOOKUP($A75,$A$1:$A74,$B$1:$B74,-1,0,-1)&lt;B75</f>
@@ -3942,62 +3955,62 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>720000</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>720000</v>
-      </c>
-      <c r="L76">
-        <v>74</v>
-      </c>
-      <c r="M76">
-        <v>4</v>
-      </c>
-      <c r="N76" t="b" cm="1">
+      <c r="A76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="I76" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="L76" s="1">
+        <v>74.2</v>
+      </c>
+      <c r="M76" s="1">
+        <v>46</v>
+      </c>
+      <c r="N76" s="1" t="b" cm="1">
         <f t="array" ref="N76">_xlfn.XLOOKUP($A76,$A$1:$A75,$B$1:$B75,-1,0,-1)&lt;B76</f>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B77">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1230000</v>
       </c>
       <c r="D77">
-        <v>3280000</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4018,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>3280000</v>
+        <v>1230000</v>
       </c>
       <c r="L77">
-        <v>75</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="M77">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="N77" t="b" cm="1">
         <f t="array" ref="N77">_xlfn.XLOOKUP($A77,$A$1:$A76,$B$1:$B76,-1,0,-1)&lt;B77</f>
@@ -4033,7 +4046,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B78">
         <v>7</v>
@@ -4042,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>3910000</v>
+        <v>819000</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -4063,13 +4076,13 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>3910000</v>
+        <v>819000</v>
       </c>
       <c r="L78">
-        <v>76</v>
+        <v>74.91</v>
       </c>
       <c r="M78">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="N78" t="b" cm="1">
         <f t="array" ref="N78">_xlfn.XLOOKUP($A78,$A$1:$A77,$B$1:$B77,-1,0,-1)&lt;B78</f>
@@ -4078,7 +4091,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -4087,10 +4100,10 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>781000</v>
       </c>
       <c r="E79">
-        <v>1020000</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -4108,13 +4121,13 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>1020000</v>
+        <v>781000</v>
       </c>
       <c r="L79">
-        <v>77</v>
+        <v>74.92</v>
       </c>
       <c r="M79">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="N79" t="b" cm="1">
         <f t="array" ref="N79">_xlfn.XLOOKUP($A79,$A$1:$A78,$B$1:$B78,-1,0,-1)&lt;B79</f>
@@ -4123,19 +4136,19 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B80">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>3280000</v>
       </c>
       <c r="E80">
-        <v>4100000</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -4153,13 +4166,13 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>4100000</v>
+        <v>3280000</v>
       </c>
       <c r="L80">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M80">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="N80" t="b" cm="1">
         <f t="array" ref="N80">_xlfn.XLOOKUP($A80,$A$1:$A79,$B$1:$B79,-1,0,-1)&lt;B80</f>
@@ -4168,22 +4181,22 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>3910000</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>4100000</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -4198,13 +4211,13 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <v>4100000</v>
+        <v>3910000</v>
       </c>
       <c r="L81">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M81">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="N81" t="b" cm="1">
         <f t="array" ref="N81">_xlfn.XLOOKUP($A81,$A$1:$A80,$B$1:$B80,-1,0,-1)&lt;B81</f>
@@ -4213,10 +4226,10 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -4225,10 +4238,10 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1020000</v>
       </c>
       <c r="F82">
-        <v>4320000</v>
+        <v>0</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -4243,13 +4256,13 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>4320000</v>
+        <v>1020000</v>
       </c>
       <c r="L82">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M82">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="N82" t="b" cm="1">
         <f t="array" ref="N82">_xlfn.XLOOKUP($A82,$A$1:$A81,$B$1:$B81,-1,0,-1)&lt;B82</f>
@@ -4258,10 +4271,10 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -4270,13 +4283,13 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>4100000</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>432000</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4288,13 +4301,13 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>432000</v>
+        <v>4100000</v>
       </c>
       <c r="L83">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M83">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="N83" t="b" cm="1">
         <f t="array" ref="N83">_xlfn.XLOOKUP($A83,$A$1:$A82,$B$1:$B82,-1,0,-1)&lt;B83</f>
@@ -4303,10 +4316,10 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4318,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>4100000</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -4327,19 +4340,19 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>1250000</v>
+        <v>0</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84">
-        <v>1250000</v>
+        <v>4100000</v>
       </c>
       <c r="L84">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M84">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="N84" t="b" cm="1">
         <f t="array" ref="N84">_xlfn.XLOOKUP($A84,$A$1:$A83,$B$1:$B83,-1,0,-1)&lt;B84</f>
@@ -4348,22 +4361,22 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B85">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>1560000</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>4320000</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -4378,13 +4391,13 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>1560000</v>
+        <v>4320000</v>
       </c>
       <c r="L85">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M85">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="N85" t="b" cm="1">
         <f t="array" ref="N85">_xlfn.XLOOKUP($A85,$A$1:$A84,$B$1:$B84,-1,0,-1)&lt;B85</f>
@@ -4393,13 +4406,13 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B86">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C86">
-        <v>4920000</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -4417,19 +4430,19 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1250000</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86">
-        <v>4920000</v>
+        <v>1250000</v>
       </c>
       <c r="L86">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M86">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="N86" t="b" cm="1">
         <f t="array" ref="N86">_xlfn.XLOOKUP($A86,$A$1:$A85,$B$1:$B85,-1,0,-1)&lt;B86</f>
@@ -4441,13 +4454,13 @@
         <v>14</v>
       </c>
       <c r="B87">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>7810000</v>
+        <v>1560000</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -4468,13 +4481,13 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>7810000</v>
+        <v>1560000</v>
       </c>
       <c r="L87">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M87">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N87" t="b" cm="1">
         <f t="array" ref="N87">_xlfn.XLOOKUP($A87,$A$1:$A86,$B$1:$B86,-1,0,-1)&lt;B87</f>
@@ -4486,10 +4499,10 @@
         <v>23</v>
       </c>
       <c r="B88">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C88">
-        <v>19700000</v>
+        <v>4920000</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -4513,13 +4526,13 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>19700000</v>
+        <v>4920000</v>
       </c>
       <c r="L88">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M88">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N88" t="b" cm="1">
         <f t="array" ref="N88">_xlfn.XLOOKUP($A88,$A$1:$A87,$B$1:$B87,-1,0,-1)&lt;B88</f>
@@ -4528,7 +4541,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B89">
         <v>8</v>
@@ -4537,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>19500000</v>
+        <v>7810000</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4558,13 +4571,13 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>19500000</v>
+        <v>7810000</v>
       </c>
       <c r="L89">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M89">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N89" t="b" cm="1">
         <f t="array" ref="N89">_xlfn.XLOOKUP($A89,$A$1:$A88,$B$1:$B88,-1,0,-1)&lt;B89</f>
@@ -4573,16 +4586,16 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B90">
         <v>9</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>19700000</v>
       </c>
       <c r="D90">
-        <v>97700000</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -4603,13 +4616,13 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>97700000</v>
+        <v>19700000</v>
       </c>
       <c r="L90">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M90">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="N90" t="b" cm="1">
         <f t="array" ref="N90">_xlfn.XLOOKUP($A90,$A$1:$A89,$B$1:$B89,-1,0,-1)&lt;B90</f>
@@ -4618,7 +4631,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B91">
         <v>8</v>
@@ -4627,10 +4640,10 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>19500000</v>
       </c>
       <c r="E91">
-        <v>16400000</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -4648,13 +4661,13 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>16400000</v>
+        <v>19500000</v>
       </c>
       <c r="L91">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M91">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="N91" t="b" cm="1">
         <f t="array" ref="N91">_xlfn.XLOOKUP($A91,$A$1:$A90,$B$1:$B90,-1,0,-1)&lt;B91</f>
@@ -4663,7 +4676,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B92">
         <v>9</v>
@@ -4672,10 +4685,10 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>97700000</v>
       </c>
       <c r="E92">
-        <v>65500000</v>
+        <v>0</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -4693,13 +4706,13 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>65500000</v>
+        <v>97700000</v>
       </c>
       <c r="L92">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M92">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="N92" t="b" cm="1">
         <f t="array" ref="N92">_xlfn.XLOOKUP($A92,$A$1:$A91,$B$1:$B91,-1,0,-1)&lt;B92</f>
@@ -4708,10 +4721,10 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -4720,10 +4733,10 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>16400000</v>
       </c>
       <c r="F93">
-        <v>25900000</v>
+        <v>0</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -4738,13 +4751,13 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>25900000</v>
+        <v>16400000</v>
       </c>
       <c r="L93">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M93">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="N93" t="b" cm="1">
         <f t="array" ref="N93">_xlfn.XLOOKUP($A93,$A$1:$A92,$B$1:$B92,-1,0,-1)&lt;B93</f>
@@ -4753,10 +4766,10 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -4765,13 +4778,13 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>65500000</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>2590000</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -4783,13 +4796,13 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>2590000</v>
+        <v>65500000</v>
       </c>
       <c r="L94">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M94">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="N94" t="b" cm="1">
         <f t="array" ref="N94">_xlfn.XLOOKUP($A94,$A$1:$A93,$B$1:$B93,-1,0,-1)&lt;B94</f>
@@ -4798,10 +4811,10 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -4813,10 +4826,10 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>25900000</v>
       </c>
       <c r="G95">
-        <v>2590000</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -4828,13 +4841,13 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>2590000</v>
+        <v>25900000</v>
       </c>
       <c r="L95">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M95">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="N95" t="b" cm="1">
         <f t="array" ref="N95">_xlfn.XLOOKUP($A95,$A$1:$A94,$B$1:$B94,-1,0,-1)&lt;B95</f>
@@ -4846,7 +4859,7 @@
         <v>11</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -4861,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>15600000</v>
+        <v>2590000</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -4873,13 +4886,13 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>15600000</v>
+        <v>2590000</v>
       </c>
       <c r="L96">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M96">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N96" t="b" cm="1">
         <f t="array" ref="N96">_xlfn.XLOOKUP($A96,$A$1:$A95,$B$1:$B95,-1,0,-1)&lt;B96</f>
@@ -4891,7 +4904,7 @@
         <v>16</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -4906,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>15600000</v>
+        <v>2590000</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4918,13 +4931,13 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>15600000</v>
+        <v>2590000</v>
       </c>
       <c r="L97">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M97">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N97" t="b" cm="1">
         <f t="array" ref="N97">_xlfn.XLOOKUP($A97,$A$1:$A96,$B$1:$B96,-1,0,-1)&lt;B97</f>
@@ -4933,10 +4946,10 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -4951,25 +4964,25 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>15600000</v>
       </c>
       <c r="H98">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98">
-        <v>3000000</v>
+        <v>15600000</v>
       </c>
       <c r="L98">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M98">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="N98" t="b" cm="1">
         <f t="array" ref="N98">_xlfn.XLOOKUP($A98,$A$1:$A97,$B$1:$B97,-1,0,-1)&lt;B98</f>
@@ -4978,16 +4991,16 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B99">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>39100000</v>
+        <v>0</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4996,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>15600000</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -5008,26 +5021,72 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>39100000</v>
+        <v>15600000</v>
       </c>
       <c r="L99">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="M99">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="N99" t="b" cm="1">
         <f t="array" ref="N99">_xlfn.XLOOKUP($A99,$A$1:$A98,$B$1:$B98,-1,0,-1)&lt;B99</f>
         <v>1</v>
       </c>
     </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100">
+        <v>9</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>39100000</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>39100000</v>
+      </c>
+      <c r="L100">
+        <v>1000</v>
+      </c>
+      <c r="M100">
+        <v>45</v>
+      </c>
+      <c r="N100" t="b" cm="1">
+        <f t="array" ref="N100">_xlfn.XLOOKUP($A100,$A$1:$A99,$B$1:$B99,-1,0,-1)&lt;B100</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N99" xr:uid="{876A1CAB-E595-4E15-A51F-59E58A23057E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N99">
-      <sortCondition ref="L1:L99"/>
+  <autoFilter ref="A1:N100" xr:uid="{876A1CAB-E595-4E15-A51F-59E58A23057E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N100">
+      <sortCondition ref="L1:L100"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>